--- a/public/assets/excel/sellwing_products_editor.xlsx
+++ b/public/assets/excel/sellwing_products_editor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sellwing\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E22B12-5605-4695-B4AE-2BB621576DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F2647-C43F-45C5-A985-69CD2092B2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="4248">
   <si>
     <t>상품코드</t>
   </si>
@@ -12765,6 +12765,10 @@
   </si>
   <si>
     <t>상품 상세정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세 정보 주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13212,23 +13216,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" style="6" customWidth="1"/>
     <col min="3" max="4" width="50.58203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="50.58203125" style="6" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13246,6 +13250,9 @@
       </c>
       <c r="F1" s="5" t="s">
         <v>4246</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4247</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/excel/sellwing_products_editor.xlsx
+++ b/public/assets/excel/sellwing_products_editor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sellwing\public\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE3BE2-0D6B-439D-8368-3DEAFE28FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317A200-FCF9-4587-9740-B83223B67A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13227,7 +13227,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
